--- a/PhoenixCI/Excel_Template/60310.xlsx
+++ b/PhoenixCI/Excel_Template/60310.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7CC7C0F-61B9-4782-8A59-94C30DD1958D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2EE0CC1-76AD-41E6-B028-67925CCF583B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="32760" yWindow="120" windowWidth="21555" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="周五報表" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -704,10 +703,10 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -761,19 +760,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">

--- a/PhoenixCI/Excel_Template/60310.xlsx
+++ b/PhoenixCI/Excel_Template/60310.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2EE0CC1-76AD-41E6-B028-67925CCF583B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7CC7C0F-61B9-4782-8A59-94C30DD1958D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="120" windowWidth="21555" windowHeight="9630"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="周五報表" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -703,10 +704,10 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -760,19 +761,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
